--- a/data_excel/744.xlsx
+++ b/data_excel/744.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\Revise_final\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>盒子</t>
   </si>
@@ -121,6 +121,20 @@
   </si>
   <si>
     <t>蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +165,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,13 +204,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -492,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -602,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -610,99 +671,110 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data_excel/744.xlsx
+++ b/data_excel/744.xlsx
@@ -114,9 +114,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -135,6 +132,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,12 +246,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -556,7 +558,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,13 +675,13 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -725,7 +727,7 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -749,16 +751,16 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
+      <c r="B15" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>

--- a/data_excel/744.xlsx
+++ b/data_excel/744.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>盒子</t>
   </si>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +562,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,7 +688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -695,15 +699,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
